--- a/Spreadsheet Applications/Creating a Worksheet and Charting Data/Plyo Products.xlsx
+++ b/Spreadsheet Applications/Creating a Worksheet and Charting Data/Plyo Products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Creating a Worksheet and Charting Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{7DC5434B-DD73-4D5F-8291-6A7FD262B3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5B4A0A2-C5D3-4C6C-B51E-C57CA07EF383}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{7DC5434B-DD73-4D5F-8291-6A7FD262B3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5BEC56B-71DA-4955-8DF0-7904A14D8379}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{078415BD-30B5-4968-B6DF-299C7F87EF9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{078415BD-30B5-4968-B6DF-299C7F87EF9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Plyo Products" sheetId="1" r:id="rId1"/>
@@ -225,15 +225,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -244,6 +235,15 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -570,8 +570,8 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,55 +582,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -638,7 +638,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1">
@@ -654,7 +654,7 @@
         <f>C5*E5</f>
         <v>4118.75</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <f>F5/$F$11</f>
         <v>1.4061733699527339E-2</v>
       </c>
@@ -663,7 +663,7 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1">
@@ -679,7 +679,7 @@
         <f t="shared" ref="F6:F10" si="0">C6*E6</f>
         <v>59650.25</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <f t="shared" ref="G6:G10" si="1">F6/$F$11</f>
         <v>0.20365060530749152</v>
       </c>
@@ -688,7 +688,7 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1">
@@ -704,7 +704,7 @@
         <f t="shared" si="0"/>
         <v>113215.5</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <f t="shared" si="1"/>
         <v>0.38652654607801817</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1">
@@ -729,7 +729,7 @@
         <f t="shared" si="0"/>
         <v>55194.75</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
         <v>0.18843918084661282</v>
       </c>
@@ -738,7 +738,7 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="1">
@@ -754,7 +754,7 @@
         <f t="shared" si="0"/>
         <v>40302.75</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <f t="shared" si="1"/>
         <v>0.13759673149830057</v>
       </c>
@@ -763,7 +763,7 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1">
@@ -779,16 +779,16 @@
         <f t="shared" si="0"/>
         <v>20422.849999999999</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="2">
         <f t="shared" si="1"/>
         <v>6.9725202570049633E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5">
         <f>SUM(F5:F10)</f>
         <v>292904.84999999998</v>
       </c>
@@ -802,5 +802,8 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>